--- a/server/temp/checklist_test.xlsx
+++ b/server/temp/checklist_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>English Name</t>
   </si>
@@ -140,18 +140,6 @@
   </si>
   <si>
     <t>Tandin Wangchuk44256-1</t>
-  </si>
-  <si>
-    <t>Tshering Dorji</t>
-  </si>
-  <si>
-    <t>Tshering Dorji44256-1</t>
-  </si>
-  <si>
-    <t>Tshering Norbu</t>
-  </si>
-  <si>
-    <t>Tshering Norbu44256-1</t>
   </si>
 </sst>
 </file>
@@ -160,9 +148,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="24">
@@ -199,6 +187,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -206,13 +232,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -221,39 +256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,33 +270,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,38 +295,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,61 +346,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,121 +514,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,11 +612,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,23 +645,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +662,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,148 +714,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1222,15 +1210,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.4444444444444"/>
     <col min="9" max="9" width="17.1111111111111" customWidth="1"/>
     <col min="10" max="10" width="28.2222222222222" customWidth="1"/>
     <col min="11" max="11" width="23.8888888888889" customWidth="1"/>
@@ -1896,93 +1885,6 @@
         <v>41</v>
       </c>
       <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11">
-        <v>5</v>
-      </c>
-      <c r="E24" s="12">
-        <v>44199</v>
-      </c>
-      <c r="F24" s="13">
-        <v>0.417719907407407</v>
-      </c>
-      <c r="G24" s="11">
-        <v>27.20978</v>
-      </c>
-      <c r="H24" s="11">
-        <v>90.06545</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11">
-        <v>5</v>
-      </c>
-      <c r="E25" s="12">
-        <v>44199</v>
-      </c>
-      <c r="F25" s="13">
-        <v>0.737615740740741</v>
-      </c>
-      <c r="G25" s="11">
-        <v>26.96533</v>
-      </c>
-      <c r="H25" s="11">
-        <v>90.86305</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11">
-        <v>5</v>
-      </c>
-      <c r="E26" s="12">
-        <v>44199</v>
-      </c>
-      <c r="F26" s="13">
-        <v>0.317488425925926</v>
-      </c>
-      <c r="G26" s="11">
-        <v>26.75694</v>
-      </c>
-      <c r="H26" s="11">
-        <v>90.13804</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/server/temp/checklist_test.xlsx
+++ b/server/temp/checklist_test.xlsx
@@ -64,7 +64,7 @@
     <t>Gyalpozhing, Mongar</t>
   </si>
   <si>
-    <t>["images/Ruff.jpg"]</t>
+    <t>images/Ruff.jpg</t>
   </si>
   <si>
     <t>Tshering Wangdi</t>
@@ -165,11 +165,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -200,14 +200,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,10 +230,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,9 +268,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,17 +299,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,45 +321,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,20 +336,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -358,31 +358,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,151 +526,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,6 +591,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -602,6 +617,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,38 +672,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,29 +688,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,148 +711,147 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="35" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="35" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,8 +1178,8 @@
   <sheetPr/>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1200,13 +1199,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1215,10 +1214,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1235,771 +1234,771 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>15</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>16</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>44199</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>0.579988425925926</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>27.51031</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>89.88823</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>16</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>16</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>44199</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>0.501770833333333</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>26.74093</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>89.87142</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>13</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>44199</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>0.366597222222222</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>26.76842</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>90.13398</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>10</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>13</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>44199</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>0.709027777777778</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>27.60342</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>89.87482</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>11</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>44199</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>0.439895833333333</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>26.8329</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>89.97213</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>10</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>10</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>44199</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>0.522546296296296</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>26.8329</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>89.97226</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>10</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>10</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>44199</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>0.521701388888889</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>26.83283</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>89.97226</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>9</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>10</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>44199</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>0.736782407407407</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>26.73851</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>89.85696</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>9</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>44199</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>0.306145833333333</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>27.10949</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>90.7455</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>9</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>44199</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>0.691678240740741</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>26.72188</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>89.85981</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>8</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>44199</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>0.30755787037037</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>27.10947</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>90.74548</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>0</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>8</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>8</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>44199</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>0.5159375</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>27.14341</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>90.69363</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>0</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>7</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>7</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>44199</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>0.6934375</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>27.57114</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>89.87068</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>6</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>7</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>44199</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>0.639074074074074</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>26.77171</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>90.13355</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>3</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>4</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>7</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>44199</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>0.713113425925926</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>26.74065</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>89.87869</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>4</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>7</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>44199</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>0.718310185185185</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>26.74049</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>89.87578</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>6</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>7</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>44199</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>0.50462962962963</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>26.74126</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>89.87055</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>2</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>5</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>7</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>44199</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>0.666724537037037</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>26.91299</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>90.03235</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>1</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>5</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>6</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>44199</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>0.320636574074074</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>27.60333</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>89.85455</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>5</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>6</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>44199</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>0.515960648148148</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>26.98445</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>91.19192</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="4"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>0</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>5</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>5</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>44199</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>0.403194444444444</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>27.35719</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <v>91.55193</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="4"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="11:11">
-      <c r="K23" s="4"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="11:11">
-      <c r="K24" s="4"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="11:11">
-      <c r="K25" s="4"/>
+      <c r="K25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
